--- a/分数.xlsx
+++ b/分数.xlsx
@@ -589,7 +589,7 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>74</c:v>
@@ -667,7 +667,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53</c:v>
@@ -784,11 +784,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="201356416"/>
-        <c:axId val="201356976"/>
+        <c:axId val="111821872"/>
+        <c:axId val="111822432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201356416"/>
+        <c:axId val="111821872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201356976"/>
+        <c:crossAx val="111822432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201356976"/>
+        <c:axId val="111822432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -949,7 +949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201356416"/>
+        <c:crossAx val="111821872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,11 +1486,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="201362016"/>
-        <c:axId val="201362576"/>
+        <c:axId val="181657264"/>
+        <c:axId val="181657824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201362016"/>
+        <c:axId val="181657264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201362576"/>
+        <c:crossAx val="181657824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201362576"/>
+        <c:axId val="181657824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1651,7 +1651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201362016"/>
+        <c:crossAx val="181657264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3148,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3381,7 +3381,7 @@
         <v>55</v>
       </c>
       <c r="E14">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -3424,7 +3424,7 @@
         <v>53</v>
       </c>
       <c r="D16">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>57</v>
